--- a/data/vlsp2016/eda/total/column-2-analyze.xlsx
+++ b/data/vlsp2016/eda/total/column-2-analyze.xlsx
@@ -20,85 +20,85 @@
     <t>2</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>count</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
     <t>B-AP</t>
   </si>
   <si>
+    <t>A, Np, FW, V</t>
+  </si>
+  <si>
     <t>nhiều, hơn, khác, gần, lớn, cùng, nhỏ, nhất, cao, đủ</t>
   </si>
   <si>
-    <t>A, Np, FW, V</t>
-  </si>
-  <si>
     <t>B-NP</t>
   </si>
   <si>
+    <t>N, P, Np, M, Nc, L, Nu, Ny, FW, CH</t>
+  </si>
+  <si>
     <t>một, người, những, ông, các, tôi, anh, này, năm, khi</t>
   </si>
   <si>
-    <t>N, P, Np, M, Nc, L, Nu, Ny, FW, CH</t>
-  </si>
-  <si>
     <t>B-PP</t>
   </si>
   <si>
+    <t>E, FW, Np</t>
+  </si>
+  <si>
     <t>của, trong, với, cho, ở, để, đến, từ, vào, trên</t>
   </si>
   <si>
-    <t>E, FW, Np</t>
-  </si>
-  <si>
     <t>B-VP</t>
   </si>
   <si>
+    <t>V, FW, Vy, A, X</t>
+  </si>
+  <si>
     <t>có, là, được, đi, ra, làm, phải, biết, lên, nói</t>
   </si>
   <si>
-    <t>V, FW, Vy, A, X</t>
-  </si>
-  <si>
     <t>I-AP</t>
   </si>
   <si>
+    <t>A</t>
+  </si>
+  <si>
     <t>Cổ, mù, tối cao</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
     <t>I-NP</t>
   </si>
   <si>
+    <t>Np, N, M, CH, Ny, V, A, FW, C, E</t>
+  </si>
+  <si>
     <t>Văn, HCM, Thị, Anh, Việt, Nam, VN, Trung, Minh, Thanh</t>
   </si>
   <si>
-    <t>Np, N, M, CH, Ny, V, A, FW, C, E</t>
-  </si>
-  <si>
     <t>I-VP</t>
   </si>
   <si>
-    <t>phòng chống, Tư vấn, Phòng chống, du lịch, vận chuyển, vận tải, dự phòng, Vận tải, xây lắp</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
+    <t>phòng chống, Tư vấn, Phòng chống, du lịch, xây lắp, vận chuyển, Vận tải, dự phòng, vận tải</t>
+  </si>
+  <si>
     <t>O</t>
   </si>
   <si>
+    <t>CH, R, C, T, X, I, Z, FW, N, M</t>
+  </si>
+  <si>
     <t>,, ., ", và, đã, không, ..., “, ”, :</t>
-  </si>
-  <si>
-    <t>CH, R, C, T, X, I, Z, FW, N, M</t>
   </si>
 </sst>
 </file>
@@ -476,11 +476,11 @@
       <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" t="n">
+        <v>25948</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>25948</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -490,11 +490,11 @@
       <c r="B3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" t="n">
+        <v>175274</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>175274</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -504,11 +504,11 @@
       <c r="B4" t="s">
         <v>11</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" t="n">
+        <v>26346</v>
+      </c>
+      <c r="D4" t="s">
         <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>26346</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -518,11 +518,11 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" t="n">
+        <v>87923</v>
+      </c>
+      <c r="D5" t="s">
         <v>15</v>
-      </c>
-      <c r="D5" t="n">
-        <v>87923</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -532,11 +532,11 @@
       <c r="B6" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" t="n">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
         <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -546,11 +546,11 @@
       <c r="B7" t="s">
         <v>20</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" t="n">
+        <v>10560</v>
+      </c>
+      <c r="D7" t="s">
         <v>21</v>
-      </c>
-      <c r="D7" t="n">
-        <v>10560</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -560,11 +560,11 @@
       <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
         <v>24</v>
-      </c>
-      <c r="D8" t="n">
-        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -574,11 +574,11 @@
       <c r="B9" t="s">
         <v>26</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C9" t="n">
+        <v>109417</v>
+      </c>
+      <c r="D9" t="s">
         <v>27</v>
-      </c>
-      <c r="D9" t="n">
-        <v>109417</v>
       </c>
     </row>
   </sheetData>
